--- a/data/dataset_valores.xlsx
+++ b/data/dataset_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriksandoval/Desktop/ZAGAZ/Estaciones/CH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99479206-7C85-9345-9046-F93E31C4C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994AB10A-EFE9-B745-B2EE-49A0BB08C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{80066C9F-7D8E-B340-8F04-A05F2EBF0A6F}"/>
   </bookViews>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E423F2-7AAB-F842-9A59-7EBF0C712748}">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1584,46 +1584,46 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
         <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
         <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
         <v>38</v>
@@ -1794,10 +1794,10 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1818,7 +1818,7 @@
         <v>70</v>
       </c>
       <c r="L5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -1859,31 +1859,31 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -1892,10 +1892,10 @@
         <v>70</v>
       </c>
       <c r="L6">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
@@ -1907,13 +1907,13 @@
         <v>98</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
         <v>36</v>
@@ -1922,42 +1922,42 @@
         <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -1966,19 +1966,19 @@
         <v>61</v>
       </c>
       <c r="L7">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M7" t="s">
         <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -1987,16 +1987,16 @@
         <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
         <v>50</v>
@@ -2007,31 +2007,31 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
@@ -2043,28 +2043,28 @@
         <v>2016</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
         <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s">
         <v>37</v>
@@ -2073,15 +2073,15 @@
         <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -2090,64 +2090,64 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L9">
         <v>2012</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
         <v>35</v>
       </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s">
         <v>37</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s">
         <v>40</v>
@@ -2303,16 +2303,16 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -2324,52 +2324,52 @@
         <v>27</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L12">
         <v>2012</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
         <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
         <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U12" t="s">
         <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X12" t="s">
         <v>40</v>
@@ -2377,49 +2377,49 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L13">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
@@ -2428,7 +2428,7 @@
         <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
         <v>35</v>
@@ -2443,45 +2443,45 @@
         <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="L14">
         <v>2014</v>
@@ -2493,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
         <v>32</v>
@@ -2502,10 +2502,10 @@
         <v>47</v>
       </c>
       <c r="R14" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
@@ -2525,16 +2525,16 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -2546,43 +2546,43 @@
         <v>27</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M15" t="s">
         <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
         <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
         <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
         <v>37</v>
@@ -2591,7 +2591,7 @@
         <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X15" t="s">
         <v>40</v>
@@ -2833,7 +2833,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -3043,52 +3043,52 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L22">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="M22" t="s">
         <v>55</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
         <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q22" t="s">
         <v>33</v>
@@ -3097,7 +3097,7 @@
         <v>94</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T22" t="s">
         <v>36</v>
@@ -3112,7 +3112,7 @@
         <v>50</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -3191,58 +3191,58 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L24">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q24" t="s">
         <v>82</v>
       </c>
       <c r="R24" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
         <v>49</v>
@@ -3254,10 +3254,10 @@
         <v>37</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X24" t="s">
         <v>40</v>
@@ -3265,49 +3265,49 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L25">
         <v>2016</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
         <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P25" t="s">
         <v>32</v>
@@ -3316,25 +3316,25 @@
         <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
         <v>49</v>
       </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s">
         <v>37</v>
       </c>
       <c r="V25" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -3413,58 +3413,58 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="L27">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="M27" t="s">
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q27" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R27" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S27" t="s">
         <v>101</v>
@@ -3479,18 +3479,18 @@
         <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -3499,10 +3499,10 @@
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -3511,46 +3511,46 @@
         <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L28">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U28" t="s">
         <v>37</v>
       </c>
       <c r="V28" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
         <v>50</v>
@@ -3561,19 +3561,19 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="B29">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>72</v>
@@ -3582,22 +3582,22 @@
         <v>27</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L29">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -3609,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s">
         <v>94</v>
@@ -3618,7 +3618,7 @@
         <v>35</v>
       </c>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s">
         <v>37</v>
@@ -4079,40 +4079,40 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s">
         <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L36">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="M36" t="s">
         <v>29</v>
@@ -4121,10 +4121,10 @@
         <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q36" t="s">
         <v>47</v>
@@ -4133,7 +4133,7 @@
         <v>94</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s">
         <v>71</v>
@@ -4142,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s">
         <v>50</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -4165,34 +4165,34 @@
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
         <v>44</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L37">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
         <v>31</v>
@@ -4201,16 +4201,16 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U37" t="s">
         <v>37</v>
@@ -4219,18 +4219,18 @@
         <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X37" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -4239,52 +4239,52 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L38">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="M38" t="s">
         <v>55</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="Q38" t="s">
         <v>33</v>
       </c>
       <c r="R38" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="T38" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U38" t="s">
         <v>37</v>
@@ -4313,7 +4313,7 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
@@ -4535,7 +4535,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
         <v>68</v>
@@ -4831,7 +4831,7 @@
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -4905,7 +4905,7 @@
         <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
@@ -5000,7 +5000,7 @@
         <v>83</v>
       </c>
       <c r="L48">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M48" t="s">
         <v>55</v>
@@ -5263,73 +5263,73 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>336</v>
       </c>
       <c r="B52">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
       <c r="K52" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L52">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="M52" t="s">
         <v>29</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P52" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R52" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="S52" t="s">
         <v>49</v>
       </c>
       <c r="T52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U52" t="s">
         <v>37</v>
       </c>
       <c r="V52" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X52" t="s">
         <v>40</v>
@@ -5337,96 +5337,96 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
       <c r="H53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="L53">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="M53" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N53" t="s">
         <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q53" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R53" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S53" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="T53" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U53" t="s">
         <v>37</v>
       </c>
       <c r="V53" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="X53" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B54">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
@@ -5438,34 +5438,34 @@
         <v>81</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L54">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M54" t="s">
         <v>29</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O54" t="s">
         <v>31</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q54" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R54" t="s">
         <v>34</v>
       </c>
       <c r="S54" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T54" t="s">
         <v>36</v>
@@ -5474,21 +5474,21 @@
         <v>37</v>
       </c>
       <c r="V54" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="W54" t="s">
         <v>57</v>
       </c>
       <c r="X54" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
@@ -5497,16 +5497,16 @@
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
         <v>44</v>
@@ -5518,40 +5518,40 @@
         <v>45</v>
       </c>
       <c r="L55">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N55" t="s">
         <v>30</v>
       </c>
       <c r="O55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P55" t="s">
         <v>32</v>
       </c>
       <c r="Q55" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R55" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U55" t="s">
         <v>37</v>
       </c>
       <c r="V55" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="X55" t="s">
         <v>40</v>
@@ -5645,7 +5645,7 @@
         <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
         <v>51</v>
@@ -5855,46 +5855,46 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L60">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M60" t="s">
         <v>29</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O60" t="s">
         <v>31</v>
@@ -5909,22 +5909,22 @@
         <v>94</v>
       </c>
       <c r="S60" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U60" t="s">
         <v>37</v>
       </c>
       <c r="V60" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W60" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -6151,31 +6151,31 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
       </c>
       <c r="H64">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s">
         <v>28</v>
@@ -6184,10 +6184,10 @@
         <v>45</v>
       </c>
       <c r="L64">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M64" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N64" t="s">
         <v>30</v>
@@ -6196,31 +6196,31 @@
         <v>37</v>
       </c>
       <c r="P64" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q64" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="R64" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S64" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U64" t="s">
         <v>37</v>
       </c>
       <c r="V64" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W64" t="s">
         <v>50</v>
       </c>
       <c r="X64" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -6373,22 +6373,22 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B67">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
         <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
@@ -6397,60 +6397,60 @@
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L67">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P67" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="R67" t="s">
         <v>94</v>
       </c>
       <c r="S67" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U67" t="s">
         <v>37</v>
       </c>
       <c r="V67" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W67" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="X67" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B68">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
@@ -6459,10 +6459,10 @@
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
@@ -6471,31 +6471,31 @@
         <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L68">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O68" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="P68" t="s">
         <v>32</v>
       </c>
       <c r="Q68" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R68" t="s">
         <v>34</v>
@@ -6504,7 +6504,7 @@
         <v>101</v>
       </c>
       <c r="T68" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U68" t="s">
         <v>37</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B71">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
@@ -6684,37 +6684,37 @@
         <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s">
         <v>28</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L71">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M71" t="s">
         <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O71" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P71" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q71" t="s">
         <v>47</v>
@@ -6726,7 +6726,7 @@
         <v>49</v>
       </c>
       <c r="T71" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="U71" t="s">
         <v>37</v>
@@ -6735,7 +6735,7 @@
         <v>56</v>
       </c>
       <c r="W71" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X71" t="s">
         <v>40</v>
@@ -6817,73 +6817,73 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B73">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s">
         <v>28</v>
       </c>
       <c r="K73" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L73">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="M73" t="s">
         <v>29</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O73" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P73" t="s">
         <v>32</v>
       </c>
       <c r="Q73" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R73" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S73" t="s">
         <v>101</v>
       </c>
       <c r="T73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U73" t="s">
         <v>37</v>
       </c>
       <c r="V73" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W73" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X73" t="s">
         <v>40</v>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
         <v>51</v>
@@ -6912,7 +6912,7 @@
         <v>27</v>
       </c>
       <c r="H74">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I74" t="s">
         <v>60</v>
@@ -6924,37 +6924,37 @@
         <v>70</v>
       </c>
       <c r="L74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="M74" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
       </c>
       <c r="O74" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P74" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="Q74" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R74" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T74" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U74" t="s">
         <v>37</v>
       </c>
       <c r="V74" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W74" t="s">
         <v>50</v>
@@ -6998,7 +6998,7 @@
         <v>83</v>
       </c>
       <c r="L75">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="M75" t="s">
         <v>29</v>
@@ -7442,7 +7442,7 @@
         <v>70</v>
       </c>
       <c r="L81">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="M81" t="s">
         <v>55</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="B82">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
@@ -7498,16 +7498,16 @@
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s">
         <v>27</v>
       </c>
       <c r="H82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s">
         <v>28</v>
@@ -7516,22 +7516,22 @@
         <v>70</v>
       </c>
       <c r="L82">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="M82" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N82" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P82" t="s">
         <v>46</v>
       </c>
       <c r="Q82" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R82" t="s">
         <v>34</v>
@@ -7540,16 +7540,16 @@
         <v>35</v>
       </c>
       <c r="T82" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U82" t="s">
         <v>37</v>
       </c>
       <c r="V82" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W82" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X82" t="s">
         <v>40</v>
@@ -7779,22 +7779,22 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s">
         <v>27</v>
@@ -7803,7 +7803,7 @@
         <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J86" t="s">
         <v>28</v>
@@ -7812,28 +7812,28 @@
         <v>45</v>
       </c>
       <c r="L86">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M86" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N86" t="s">
         <v>30</v>
       </c>
       <c r="O86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P86" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q86" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R86" t="s">
         <v>94</v>
       </c>
       <c r="S86" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T86" t="s">
         <v>36</v>
@@ -7845,10 +7845,10 @@
         <v>56</v>
       </c>
       <c r="W86" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="X86" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -7927,31 +7927,31 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s">
         <v>27</v>
       </c>
       <c r="H88">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -7960,7 +7960,7 @@
         <v>70</v>
       </c>
       <c r="L88">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M88" t="s">
         <v>29</v>
@@ -7969,19 +7969,19 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q88" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R88" t="s">
         <v>34</v>
       </c>
       <c r="S88" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="T88" t="s">
         <v>36</v>
@@ -7993,7 +7993,7 @@
         <v>38</v>
       </c>
       <c r="W88" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X88" t="s">
         <v>40</v>
@@ -8013,7 +8013,7 @@
         <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
         <v>72</v>
@@ -8149,43 +8149,43 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s">
         <v>27</v>
       </c>
       <c r="H91">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J91" t="s">
         <v>53</v>
       </c>
       <c r="K91" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L91">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M91" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="N91" t="s">
         <v>30</v>
@@ -8194,16 +8194,16 @@
         <v>37</v>
       </c>
       <c r="P91" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q91" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R91" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S91" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T91" t="s">
         <v>36</v>
@@ -8457,7 +8457,7 @@
         <v>59</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
         <v>51</v>
@@ -9259,40 +9259,40 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="B106">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G106" t="s">
         <v>27</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
         <v>28</v>
       </c>
       <c r="K106" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L106">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="M106" t="s">
         <v>29</v>
@@ -9304,19 +9304,19 @@
         <v>37</v>
       </c>
       <c r="P106" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q106" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R106" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S106" t="s">
         <v>49</v>
       </c>
       <c r="T106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U106" t="s">
         <v>37</v>
@@ -9325,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="W106" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X106" t="s">
         <v>40</v>
@@ -9333,16 +9333,16 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B107">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -9354,28 +9354,28 @@
         <v>27</v>
       </c>
       <c r="H107">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
       </c>
       <c r="K107" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L107">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M107" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N107" t="s">
         <v>30</v>
       </c>
       <c r="O107" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P107" t="s">
         <v>32</v>
@@ -9384,13 +9384,13 @@
         <v>33</v>
       </c>
       <c r="R107" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="S107" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="T107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U107" t="s">
         <v>37</v>
@@ -9407,49 +9407,49 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B108">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
         <v>27</v>
       </c>
       <c r="H108">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
       </c>
       <c r="K108" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L108">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="M108" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N108" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P108" t="s">
         <v>46</v>
@@ -9458,25 +9458,25 @@
         <v>47</v>
       </c>
       <c r="R108" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S108" t="s">
         <v>49</v>
       </c>
       <c r="T108" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U108" t="s">
         <v>37</v>
       </c>
       <c r="V108" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W108" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X108" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
@@ -9863,7 +9863,7 @@
         <v>59</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F114" t="s">
         <v>51</v>
@@ -9999,16 +9999,16 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="B116">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E116" t="s">
         <v>25</v>
@@ -10020,37 +10020,37 @@
         <v>27</v>
       </c>
       <c r="H116">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K116" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L116">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="M116" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O116" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P116" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q116" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R116" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S116" t="s">
         <v>35</v>
@@ -10062,10 +10062,10 @@
         <v>37</v>
       </c>
       <c r="V116" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W116" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="X116" t="s">
         <v>58</v>
@@ -10073,22 +10073,22 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="B117">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E117" t="s">
         <v>25</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G117" t="s">
         <v>27</v>
@@ -10097,40 +10097,40 @@
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J117" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K117" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L117">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="M117" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N117" t="s">
         <v>30</v>
       </c>
       <c r="O117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P117" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q117" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R117" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="S117" t="s">
         <v>49</v>
       </c>
       <c r="T117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U117" t="s">
         <v>37</v>
@@ -10139,7 +10139,7 @@
         <v>38</v>
       </c>
       <c r="W117" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X117" t="s">
         <v>40</v>
@@ -10369,70 +10369,70 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="B121">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C121" t="s">
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>27</v>
       </c>
       <c r="H121">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K121" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L121">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="M121" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O121" t="s">
         <v>31</v>
       </c>
       <c r="P121" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="Q121" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R121" t="s">
         <v>94</v>
       </c>
       <c r="S121" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T121" t="s">
         <v>36</v>
       </c>
       <c r="U121" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V121" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W121" t="s">
         <v>50</v>
@@ -10443,64 +10443,64 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="B122">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G122" t="s">
         <v>27</v>
       </c>
       <c r="H122">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J122" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L122">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M122" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N122" t="s">
         <v>30</v>
       </c>
       <c r="O122" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P122" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="Q122" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R122" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="S122" t="s">
         <v>101</v>
       </c>
       <c r="T122" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U122" t="s">
         <v>37</v>
@@ -10509,7 +10509,7 @@
         <v>38</v>
       </c>
       <c r="W122" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="X122" t="s">
         <v>40</v>
@@ -10591,10 +10591,10 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="B124">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
@@ -10603,7 +10603,7 @@
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
         <v>43</v>
@@ -10612,43 +10612,43 @@
         <v>27</v>
       </c>
       <c r="H124">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J124" t="s">
         <v>28</v>
       </c>
       <c r="K124" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L124">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M124" t="s">
         <v>29</v>
       </c>
       <c r="N124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P124" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q124" t="s">
         <v>47</v>
       </c>
       <c r="R124" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="S124" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="T124" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U124" t="s">
         <v>37</v>
@@ -10665,10 +10665,10 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="B125">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
@@ -10677,10 +10677,10 @@
         <v>59</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
         <v>27</v>
@@ -10689,7 +10689,7 @@
         <v>19</v>
       </c>
       <c r="I125" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J125" t="s">
         <v>28</v>
@@ -10698,40 +10698,40 @@
         <v>70</v>
       </c>
       <c r="L125">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="M125" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O125" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P125" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="Q125" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R125" t="s">
         <v>34</v>
       </c>
       <c r="S125" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T125" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U125" t="s">
         <v>37</v>
       </c>
       <c r="V125" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W125" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X125" t="s">
         <v>40</v>
@@ -10739,10 +10739,10 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B126">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
         <v>24</v>
@@ -10751,49 +10751,49 @@
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>27</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J126" t="s">
         <v>28</v>
       </c>
       <c r="K126" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L126">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M126" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N126" t="s">
         <v>30</v>
       </c>
       <c r="O126" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P126" t="s">
         <v>67</v>
       </c>
       <c r="Q126" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="R126" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S126" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T126" t="s">
         <v>36</v>
@@ -10802,7 +10802,7 @@
         <v>37</v>
       </c>
       <c r="V126" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W126" t="s">
         <v>50</v>
@@ -10813,10 +10813,10 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B127">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
@@ -10825,61 +10825,61 @@
         <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
         <v>27</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J127" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K127" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L127">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="M127" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N127" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O127" t="s">
         <v>31</v>
       </c>
       <c r="P127" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q127" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R127" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S127" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T127" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U127" t="s">
         <v>37</v>
       </c>
       <c r="V127" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="W127" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="X127" t="s">
         <v>40</v>
@@ -11331,10 +11331,10 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B134">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
         <v>24</v>
@@ -11352,19 +11352,19 @@
         <v>27</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K134" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L134">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="M134" t="s">
         <v>55</v>
@@ -11376,13 +11376,13 @@
         <v>31</v>
       </c>
       <c r="P134" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q134" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R134" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="S134" t="s">
         <v>49</v>
@@ -11394,10 +11394,10 @@
         <v>37</v>
       </c>
       <c r="V134" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="W134" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X134" t="s">
         <v>40</v>
@@ -11479,46 +11479,46 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B136">
+        <v>28</v>
+      </c>
+      <c r="C136" t="s">
         <v>63</v>
-      </c>
-      <c r="C136" t="s">
-        <v>24</v>
       </c>
       <c r="D136" t="s">
         <v>41</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G136" t="s">
         <v>27</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I136" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J136" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K136" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="L136">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="M136" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N136" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O136" t="s">
         <v>37</v>
@@ -11527,13 +11527,13 @@
         <v>46</v>
       </c>
       <c r="Q136" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R136" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S136" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T136" t="s">
         <v>36</v>
@@ -11545,54 +11545,54 @@
         <v>56</v>
       </c>
       <c r="W136" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X136" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B137">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C137" t="s">
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
         <v>27</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J137" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K137" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L137">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="M137" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O137" t="s">
         <v>31</v>
@@ -11601,16 +11601,16 @@
         <v>46</v>
       </c>
       <c r="Q137" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="R137" t="s">
         <v>77</v>
       </c>
       <c r="S137" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T137" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U137" t="s">
         <v>37</v>
@@ -11619,7 +11619,7 @@
         <v>56</v>
       </c>
       <c r="W137" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X137" t="s">
         <v>40</v>
@@ -11997,64 +11997,64 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="B143">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
         <v>41</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>27</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K143" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L143">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="M143" t="s">
         <v>55</v>
       </c>
       <c r="N143" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P143" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q143" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R143" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="S143" t="s">
         <v>49</v>
       </c>
       <c r="T143" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U143" t="s">
         <v>37</v>
@@ -12066,7 +12066,7 @@
         <v>57</v>
       </c>
       <c r="X143" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
@@ -12145,10 +12145,10 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="B145">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C145" t="s">
         <v>24</v>
@@ -12160,7 +12160,7 @@
         <v>25</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G145" t="s">
         <v>27</v>
@@ -12169,37 +12169,37 @@
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J145" t="s">
         <v>28</v>
       </c>
       <c r="K145" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L145">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="M145" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N145" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O145" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="P145" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q145" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R145" t="s">
         <v>94</v>
       </c>
       <c r="S145" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T145" t="s">
         <v>36</v>
@@ -12208,10 +12208,10 @@
         <v>37</v>
       </c>
       <c r="V145" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W145" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X145" t="s">
         <v>40</v>
@@ -12367,13 +12367,13 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="B148">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D148" t="s">
         <v>41</v>
@@ -12382,61 +12382,61 @@
         <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G148" t="s">
         <v>27</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K148" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L148">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M148" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N148" t="s">
         <v>30</v>
       </c>
       <c r="O148" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P148" t="s">
         <v>32</v>
       </c>
       <c r="Q148" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R148" t="s">
         <v>77</v>
       </c>
       <c r="S148" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T148" t="s">
         <v>36</v>
       </c>
       <c r="U148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V148" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W148" t="s">
         <v>39</v>
       </c>
       <c r="X148" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
@@ -12663,61 +12663,61 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="B152">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D152" t="s">
         <v>41</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F152" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G152" t="s">
         <v>27</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I152" t="s">
         <v>44</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K152" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L152">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="M152" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N152" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O152" t="s">
         <v>37</v>
       </c>
       <c r="P152" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q152" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="R152" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="S152" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T152" t="s">
         <v>36</v>
@@ -12726,30 +12726,30 @@
         <v>37</v>
       </c>
       <c r="V152" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W152" t="s">
         <v>50</v>
       </c>
       <c r="X152" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B153">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
         <v>43</v>
@@ -12758,63 +12758,63 @@
         <v>27</v>
       </c>
       <c r="H153">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J153" t="s">
         <v>28</v>
       </c>
       <c r="K153" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L153">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M153" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N153" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O153" t="s">
         <v>31</v>
       </c>
       <c r="P153" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q153" t="s">
         <v>47</v>
       </c>
       <c r="R153" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S153" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="T153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V153" t="s">
         <v>38</v>
       </c>
       <c r="W153" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X153" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="B154">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
@@ -12823,7 +12823,7 @@
         <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
         <v>68</v>
@@ -12832,19 +12832,19 @@
         <v>27</v>
       </c>
       <c r="H154">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J154" t="s">
         <v>28</v>
       </c>
       <c r="K154" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L154">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M154" t="s">
         <v>29</v>
@@ -12853,22 +12853,22 @@
         <v>30</v>
       </c>
       <c r="O154" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P154" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q154" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="R154" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S154" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T154" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U154" t="s">
         <v>37</v>
@@ -12877,10 +12877,10 @@
         <v>38</v>
       </c>
       <c r="W154" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="X154" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
@@ -13033,10 +13033,10 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="B157">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
         <v>24</v>
@@ -13054,7 +13054,7 @@
         <v>27</v>
       </c>
       <c r="H157">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I157" t="s">
         <v>81</v>
@@ -13066,22 +13066,22 @@
         <v>70</v>
       </c>
       <c r="L157">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="M157" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N157" t="s">
         <v>30</v>
       </c>
       <c r="O157" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P157" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q157" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R157" t="s">
         <v>34</v>
@@ -13181,10 +13181,10 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B159">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
@@ -13193,52 +13193,52 @@
         <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
         <v>27</v>
       </c>
       <c r="H159">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K159" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="L159">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M159" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N159" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O159" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P159" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q159" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R159" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="S159" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="T159" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U159" t="s">
         <v>37</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B161">
         <v>36</v>
@@ -13344,31 +13344,31 @@
         <v>25</v>
       </c>
       <c r="F161" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>27</v>
       </c>
       <c r="H161">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I161" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J161" t="s">
         <v>28</v>
       </c>
       <c r="K161" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L161">
         <v>2015</v>
       </c>
       <c r="M161" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N161" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O161" t="s">
         <v>37</v>
@@ -13377,25 +13377,25 @@
         <v>46</v>
       </c>
       <c r="Q161" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R161" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S161" t="s">
         <v>49</v>
       </c>
       <c r="T161" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U161" t="s">
         <v>37</v>
       </c>
       <c r="V161" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="W161" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X161" t="s">
         <v>40</v>
@@ -13510,7 +13510,7 @@
         <v>70</v>
       </c>
       <c r="L163">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="M163" t="s">
         <v>29</v>
@@ -13847,10 +13847,10 @@
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="B168">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
@@ -13871,16 +13871,16 @@
         <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J168" t="s">
         <v>28</v>
       </c>
       <c r="K168" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L168">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M168" t="s">
         <v>29</v>
@@ -13892,16 +13892,16 @@
         <v>37</v>
       </c>
       <c r="P168" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q168" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R168" t="s">
         <v>94</v>
       </c>
       <c r="S168" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T168" t="s">
         <v>36</v>
@@ -13910,10 +13910,10 @@
         <v>37</v>
       </c>
       <c r="V168" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W168" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X168" t="s">
         <v>40</v>
@@ -13995,19 +13995,19 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B170">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F170" t="s">
         <v>43</v>
@@ -14016,52 +14016,52 @@
         <v>27</v>
       </c>
       <c r="H170">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I170" t="s">
         <v>60</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K170" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L170">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M170" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O170" t="s">
         <v>31</v>
       </c>
       <c r="P170" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="Q170" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R170" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="S170" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="T170" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="U170" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V170" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W170" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="X170" t="s">
         <v>40</v>
@@ -14143,70 +14143,70 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B172">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E172" t="s">
         <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G172" t="s">
         <v>27</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="J172" t="s">
         <v>28</v>
       </c>
       <c r="K172" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L172">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M172" t="s">
         <v>55</v>
       </c>
       <c r="N172" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P172" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q172" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R172" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="S172" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="T172" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U172" t="s">
         <v>37</v>
       </c>
       <c r="V172" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="W172" t="s">
         <v>50</v>
@@ -14291,10 +14291,10 @@
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="B174">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -14312,40 +14312,40 @@
         <v>27</v>
       </c>
       <c r="H174">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J174" t="s">
         <v>28</v>
       </c>
       <c r="K174" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L174">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M174" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N174" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O174" t="s">
         <v>31</v>
       </c>
       <c r="P174" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="Q174" t="s">
         <v>47</v>
       </c>
       <c r="R174" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S174" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T174" t="s">
         <v>36</v>
@@ -14354,13 +14354,13 @@
         <v>37</v>
       </c>
       <c r="V174" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W174" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X174" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
@@ -14587,40 +14587,40 @@
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B178">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E178" t="s">
         <v>25</v>
       </c>
       <c r="F178" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G178" t="s">
         <v>27</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I178" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J178" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K178" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L178">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M178" t="s">
         <v>29</v>
@@ -14629,7 +14629,7 @@
         <v>36</v>
       </c>
       <c r="O178" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P178" t="s">
         <v>32</v>
@@ -14638,7 +14638,7 @@
         <v>33</v>
       </c>
       <c r="R178" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="S178" t="s">
         <v>101</v>
@@ -14656,7 +14656,7 @@
         <v>50</v>
       </c>
       <c r="X178" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
@@ -14809,13 +14809,13 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B181">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
         <v>41</v>
@@ -14824,25 +14824,25 @@
         <v>25</v>
       </c>
       <c r="F181" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G181" t="s">
         <v>27</v>
       </c>
       <c r="H181">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I181" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K181" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="L181">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M181" t="s">
         <v>29</v>
@@ -14860,10 +14860,10 @@
         <v>33</v>
       </c>
       <c r="R181" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="S181" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="T181" t="s">
         <v>36</v>
@@ -14878,7 +14878,7 @@
         <v>50</v>
       </c>
       <c r="X181" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
@@ -15105,13 +15105,13 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B185">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D185" t="s">
         <v>41</v>
@@ -15120,46 +15120,46 @@
         <v>25</v>
       </c>
       <c r="F185" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
         <v>27</v>
       </c>
       <c r="H185">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I185" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K185" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L185">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M185" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N185" t="s">
         <v>36</v>
       </c>
       <c r="O185" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P185" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="Q185" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="R185" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S185" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="T185" t="s">
         <v>36</v>
@@ -15327,43 +15327,43 @@
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="B188">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C188" t="s">
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F188" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G188" t="s">
         <v>27</v>
       </c>
       <c r="H188">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I188" t="s">
         <v>81</v>
       </c>
       <c r="J188" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K188" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L188">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M188" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N188" t="s">
         <v>36</v>
@@ -15375,16 +15375,16 @@
         <v>32</v>
       </c>
       <c r="Q188" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R188" t="s">
         <v>48</v>
       </c>
       <c r="S188" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T188" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U188" t="s">
         <v>37</v>
@@ -15393,10 +15393,10 @@
         <v>56</v>
       </c>
       <c r="W188" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X188" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.2">
@@ -15549,10 +15549,10 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="B191">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -15564,28 +15564,28 @@
         <v>25</v>
       </c>
       <c r="F191" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G191" t="s">
         <v>27</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I191" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K191" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L191">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M191" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N191" t="s">
         <v>30</v>
@@ -15594,19 +15594,19 @@
         <v>31</v>
       </c>
       <c r="P191" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="Q191" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="R191" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S191" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T191" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U191" t="s">
         <v>37</v>
@@ -15697,10 +15697,10 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B193">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
@@ -15721,22 +15721,22 @@
         <v>13</v>
       </c>
       <c r="I193" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J193" t="s">
         <v>28</v>
       </c>
       <c r="K193" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L193">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M193" t="s">
         <v>55</v>
       </c>
       <c r="N193" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O193" t="s">
         <v>31</v>
@@ -15745,16 +15745,16 @@
         <v>32</v>
       </c>
       <c r="Q193" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="R193" t="s">
         <v>48</v>
       </c>
       <c r="S193" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T193" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U193" t="s">
         <v>37</v>
@@ -15763,18 +15763,18 @@
         <v>56</v>
       </c>
       <c r="W193" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="X193" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B194">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
         <v>24</v>
@@ -15786,16 +15786,16 @@
         <v>25</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G194" t="s">
         <v>27</v>
       </c>
       <c r="H194">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I194" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J194" t="s">
         <v>28</v>
@@ -15804,43 +15804,43 @@
         <v>70</v>
       </c>
       <c r="L194">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M194" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N194" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O194" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P194" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q194" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R194" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S194" t="s">
         <v>49</v>
       </c>
       <c r="T194" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U194" t="s">
         <v>37</v>
       </c>
       <c r="V194" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W194" t="s">
         <v>57</v>
       </c>
       <c r="X194" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
@@ -15993,10 +15993,10 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="B197">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -16005,37 +16005,37 @@
         <v>41</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G197" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I197" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J197" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K197" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="L197">
         <v>2015</v>
       </c>
       <c r="M197" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N197" t="s">
         <v>36</v>
       </c>
       <c r="O197" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P197" t="s">
         <v>97</v>
@@ -16044,16 +16044,16 @@
         <v>47</v>
       </c>
       <c r="R197" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S197" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="T197" t="s">
         <v>36</v>
       </c>
       <c r="U197" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V197" t="s">
         <v>56</v>
@@ -16062,7 +16062,7 @@
         <v>50</v>
       </c>
       <c r="X197" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
@@ -16215,10 +16215,10 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="B200">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -16230,49 +16230,49 @@
         <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G200" t="s">
         <v>27</v>
       </c>
       <c r="H200">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I200" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J200" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K200" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L200">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M200" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N200" t="s">
         <v>36</v>
       </c>
       <c r="O200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P200" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q200" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="R200" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S200" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T200" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U200" t="s">
         <v>37</v>
@@ -16281,7 +16281,7 @@
         <v>56</v>
       </c>
       <c r="W200" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X200" t="s">
         <v>40</v>
@@ -16437,61 +16437,61 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="B203">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D203" t="s">
         <v>41</v>
       </c>
       <c r="E203" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F203" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G203" t="s">
         <v>27</v>
       </c>
       <c r="H203">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
         <v>64</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K203" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L203">
         <v>2015</v>
       </c>
       <c r="M203" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N203" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O203" t="s">
         <v>31</v>
       </c>
       <c r="P203" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="Q203" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R203" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="S203" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="T203" t="s">
         <v>36</v>
@@ -16500,7 +16500,7 @@
         <v>37</v>
       </c>
       <c r="V203" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W203" t="s">
         <v>50</v>
@@ -16511,10 +16511,10 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="B204">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -16523,31 +16523,31 @@
         <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
         <v>27</v>
       </c>
       <c r="H204">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I204" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J204" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K204" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L204">
         <v>2016</v>
       </c>
       <c r="M204" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N204" t="s">
         <v>30</v>
@@ -16556,7 +16556,7 @@
         <v>31</v>
       </c>
       <c r="P204" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="Q204" t="s">
         <v>33</v>
@@ -16565,81 +16565,81 @@
         <v>94</v>
       </c>
       <c r="S204" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="T204" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="U204" t="s">
         <v>37</v>
       </c>
       <c r="V204" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W204" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X204" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="B205">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D205" t="s">
         <v>41</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F205" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G205" t="s">
         <v>27</v>
       </c>
       <c r="H205">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I205" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J205" t="s">
         <v>28</v>
       </c>
       <c r="K205" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L205">
         <v>2015</v>
       </c>
       <c r="M205" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N205" t="s">
         <v>30</v>
       </c>
       <c r="O205" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P205" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="Q205" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R205" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="S205" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="T205" t="s">
         <v>36</v>
@@ -16651,36 +16651,36 @@
         <v>56</v>
       </c>
       <c r="W205" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X205" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="B206">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E206" t="s">
         <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G206" t="s">
         <v>27</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
         <v>44</v>
@@ -16692,7 +16692,7 @@
         <v>61</v>
       </c>
       <c r="L206">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="M206" t="s">
         <v>29</v>
@@ -16704,13 +16704,13 @@
         <v>31</v>
       </c>
       <c r="P206" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q206" t="s">
         <v>82</v>
       </c>
       <c r="R206" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S206" t="s">
         <v>49</v>
@@ -16722,10 +16722,10 @@
         <v>37</v>
       </c>
       <c r="V206" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W206" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="X206" t="s">
         <v>40</v>
@@ -17029,10 +17029,10 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="B211">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -17041,7 +17041,7 @@
         <v>41</v>
       </c>
       <c r="E211" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F211" t="s">
         <v>51</v>
@@ -17050,43 +17050,43 @@
         <v>27</v>
       </c>
       <c r="H211">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I211" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K211" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L211">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="M211" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N211" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O211" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="P211" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Q211" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R211" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S211" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T211" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U211" t="s">
         <v>37</v>
@@ -17095,10 +17095,10 @@
         <v>38</v>
       </c>
       <c r="W211" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X211" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
@@ -17325,64 +17325,64 @@
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="B215">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E215" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G215" t="s">
         <v>27</v>
       </c>
       <c r="H215">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I215" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J215" t="s">
         <v>28</v>
       </c>
       <c r="K215" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L215">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M215" t="s">
         <v>29</v>
       </c>
       <c r="N215" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O215" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P215" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="Q215" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R215" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S215" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T215" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="U215" t="s">
         <v>37</v>
@@ -17547,31 +17547,31 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>318</v>
+        <v>138</v>
       </c>
       <c r="B218">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F218" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G218" t="s">
         <v>27</v>
       </c>
       <c r="H218">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I218" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J218" t="s">
         <v>53</v>
@@ -17580,28 +17580,28 @@
         <v>83</v>
       </c>
       <c r="L218">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="M218" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N218" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O218" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P218" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q218" t="s">
         <v>47</v>
       </c>
       <c r="R218" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S218" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T218" t="s">
         <v>30</v>
@@ -17610,10 +17610,10 @@
         <v>37</v>
       </c>
       <c r="V218" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W218" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="X218" t="s">
         <v>40</v>
@@ -18139,61 +18139,61 @@
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="B226">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C226" t="s">
         <v>63</v>
       </c>
       <c r="D226" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G226" t="s">
         <v>27</v>
       </c>
       <c r="H226">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I226" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J226" t="s">
         <v>28</v>
       </c>
       <c r="K226" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L226">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M226" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N226" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O226" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P226" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="Q226" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R226" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S226" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="T226" t="s">
         <v>36</v>
@@ -18202,13 +18202,13 @@
         <v>37</v>
       </c>
       <c r="V226" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W226" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X226" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
@@ -18287,10 +18287,10 @@
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="B228">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C228" t="s">
         <v>24</v>
@@ -18302,16 +18302,16 @@
         <v>25</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G228" t="s">
         <v>27</v>
       </c>
       <c r="H228">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I228" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J228" t="s">
         <v>28</v>
@@ -18320,7 +18320,7 @@
         <v>70</v>
       </c>
       <c r="L228">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M228" t="s">
         <v>29</v>
@@ -18335,16 +18335,16 @@
         <v>32</v>
       </c>
       <c r="Q228" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="R228" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="S228" t="s">
         <v>101</v>
       </c>
       <c r="T228" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U228" t="s">
         <v>37</v>
@@ -18353,51 +18353,51 @@
         <v>56</v>
       </c>
       <c r="W228" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X228" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="B229">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C229" t="s">
         <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E229" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F229" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G229" t="s">
         <v>27</v>
       </c>
       <c r="H229">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I229" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J229" t="s">
         <v>28</v>
       </c>
       <c r="K229" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L229">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M229" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N229" t="s">
         <v>30</v>
@@ -18406,16 +18406,16 @@
         <v>37</v>
       </c>
       <c r="P229" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q229" t="s">
         <v>33</v>
       </c>
       <c r="R229" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S229" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T229" t="s">
         <v>36</v>
@@ -18427,7 +18427,7 @@
         <v>38</v>
       </c>
       <c r="W229" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X229" t="s">
         <v>40</v>
@@ -18435,58 +18435,58 @@
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="B230">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C230" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E230" t="s">
         <v>25</v>
       </c>
       <c r="F230" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
         <v>27</v>
       </c>
       <c r="H230">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I230" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J230" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K230" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L230">
         <v>2016</v>
       </c>
       <c r="M230" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N230" t="s">
         <v>30</v>
       </c>
       <c r="O230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P230" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q230" t="s">
         <v>33</v>
       </c>
       <c r="R230" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="S230" t="s">
         <v>35</v>
@@ -18583,19 +18583,19 @@
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="B232">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C232" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
         <v>51</v>
@@ -18604,10 +18604,10 @@
         <v>27</v>
       </c>
       <c r="H232">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I232" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J232" t="s">
         <v>28</v>
@@ -18619,28 +18619,28 @@
         <v>2016</v>
       </c>
       <c r="M232" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N232" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O232" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P232" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q232" t="s">
         <v>47</v>
       </c>
       <c r="R232" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S232" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T232" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U232" t="s">
         <v>37</v>
@@ -18649,72 +18649,72 @@
         <v>56</v>
       </c>
       <c r="W232" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="X232" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="B233">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C233" t="s">
         <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E233" t="s">
         <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G233" t="s">
         <v>27</v>
       </c>
       <c r="H233">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J233" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K233" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L233">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M233" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="N233" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O233" t="s">
         <v>31</v>
       </c>
       <c r="P233" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q233" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="R233" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="S233" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T233" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="U233" t="s">
         <v>37</v>
@@ -18723,7 +18723,7 @@
         <v>56</v>
       </c>
       <c r="W233" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="X233" t="s">
         <v>58</v>
@@ -18879,61 +18879,61 @@
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="B236">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C236" t="s">
         <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E236" t="s">
         <v>25</v>
       </c>
       <c r="F236" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G236" t="s">
         <v>27</v>
       </c>
       <c r="H236">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I236" t="s">
         <v>81</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K236" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L236">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M236" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N236" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O236" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P236" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q236" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R236" t="s">
         <v>34</v>
       </c>
       <c r="S236" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="T236" t="s">
         <v>36</v>
@@ -18945,7 +18945,7 @@
         <v>38</v>
       </c>
       <c r="W236" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X236" t="s">
         <v>40</v>
@@ -18953,10 +18953,10 @@
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="B237">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C237" t="s">
         <v>24</v>
@@ -18968,7 +18968,7 @@
         <v>25</v>
       </c>
       <c r="F237" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
         <v>27</v>
@@ -18977,13 +18977,13 @@
         <v>17</v>
       </c>
       <c r="I237" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K237" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L237">
         <v>2016</v>
@@ -18995,45 +18995,45 @@
         <v>71</v>
       </c>
       <c r="O237" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="P237" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q237" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R237" t="s">
         <v>94</v>
       </c>
       <c r="S237" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="T237" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U237" t="s">
         <v>37</v>
       </c>
       <c r="V237" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W237" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="X237" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="B238">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C238" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
         <v>41</v>
@@ -19048,19 +19048,19 @@
         <v>27</v>
       </c>
       <c r="H238">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I238" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J238" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K238" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L238">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M238" t="s">
         <v>29</v>
@@ -19069,34 +19069,34 @@
         <v>30</v>
       </c>
       <c r="O238" t="s">
+        <v>37</v>
+      </c>
+      <c r="P238" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>47</v>
+      </c>
+      <c r="R238" t="s">
+        <v>77</v>
+      </c>
+      <c r="S238" t="s">
+        <v>49</v>
+      </c>
+      <c r="T238" t="s">
+        <v>36</v>
+      </c>
+      <c r="U238" t="s">
         <v>31</v>
       </c>
-      <c r="P238" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>82</v>
-      </c>
-      <c r="R238" t="s">
-        <v>48</v>
-      </c>
-      <c r="S238" t="s">
-        <v>35</v>
-      </c>
-      <c r="T238" t="s">
-        <v>71</v>
-      </c>
-      <c r="U238" t="s">
-        <v>37</v>
-      </c>
       <c r="V238" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W238" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X238" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.2">
@@ -19249,10 +19249,10 @@
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="B241">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C241" t="s">
         <v>24</v>
@@ -19264,16 +19264,16 @@
         <v>25</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G241" t="s">
         <v>27</v>
       </c>
       <c r="H241">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I241" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J241" t="s">
         <v>28</v>
@@ -19282,10 +19282,10 @@
         <v>61</v>
       </c>
       <c r="L241">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M241" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N241" t="s">
         <v>30</v>
@@ -19294,13 +19294,13 @@
         <v>31</v>
       </c>
       <c r="P241" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q241" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="R241" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S241" t="s">
         <v>101</v>
@@ -19312,10 +19312,10 @@
         <v>37</v>
       </c>
       <c r="V241" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W241" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="X241" t="s">
         <v>58</v>
@@ -19545,61 +19545,61 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="B245">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D245" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E245" t="s">
         <v>25</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G245" t="s">
         <v>27</v>
       </c>
       <c r="H245">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I245" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J245" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K245" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L245">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M245" t="s">
         <v>29</v>
       </c>
       <c r="N245" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O245" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P245" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q245" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="R245" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="S245" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="T245" t="s">
         <v>36</v>
@@ -19608,13 +19608,13 @@
         <v>37</v>
       </c>
       <c r="V245" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W245" t="s">
         <v>50</v>
       </c>
       <c r="X245" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
@@ -19767,13 +19767,13 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B248">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D248" t="s">
         <v>41</v>
@@ -19788,10 +19788,10 @@
         <v>27</v>
       </c>
       <c r="H248">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I248" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J248" t="s">
         <v>53</v>
@@ -19800,28 +19800,28 @@
         <v>83</v>
       </c>
       <c r="L248">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M248" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N248" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O248" t="s">
         <v>31</v>
       </c>
       <c r="P248" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q248" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R248" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S248" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="T248" t="s">
         <v>36</v>
@@ -19830,10 +19830,10 @@
         <v>37</v>
       </c>
       <c r="V248" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="W248" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X248" t="s">
         <v>40</v>
@@ -19841,10 +19841,10 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="B249">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C249" t="s">
         <v>24</v>
@@ -19856,16 +19856,16 @@
         <v>25</v>
       </c>
       <c r="F249" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G249" t="s">
         <v>27</v>
       </c>
       <c r="H249">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I249" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="J249" t="s">
         <v>28</v>
@@ -19874,51 +19874,51 @@
         <v>70</v>
       </c>
       <c r="L249">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M249" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N249" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O249" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P249" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q249" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R249" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="S249" t="s">
         <v>49</v>
       </c>
       <c r="T249" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U249" t="s">
         <v>37</v>
       </c>
       <c r="V249" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W249" t="s">
         <v>57</v>
       </c>
       <c r="X249" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="B250">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C250" t="s">
         <v>24</v>
@@ -19927,19 +19927,19 @@
         <v>41</v>
       </c>
       <c r="E250" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F250" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G250" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H250">
         <v>13</v>
       </c>
       <c r="I250" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J250" t="s">
         <v>53</v>
@@ -19948,40 +19948,40 @@
         <v>83</v>
       </c>
       <c r="L250">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M250" t="s">
         <v>29</v>
       </c>
       <c r="N250" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O250" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P250" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="Q250" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="R250" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S250" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="T250" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U250" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V250" t="s">
         <v>56</v>
       </c>
       <c r="W250" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X250" t="s">
         <v>40</v>
@@ -20063,13 +20063,13 @@
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B252">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D252" t="s">
         <v>41</v>
@@ -20078,46 +20078,46 @@
         <v>25</v>
       </c>
       <c r="F252" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G252" t="s">
         <v>27</v>
       </c>
       <c r="H252">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I252" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K252" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L252">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M252" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N252" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O252" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P252" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q252" t="s">
         <v>33</v>
       </c>
       <c r="R252" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="S252" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="T252" t="s">
         <v>36</v>
@@ -20129,7 +20129,7 @@
         <v>56</v>
       </c>
       <c r="W252" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X252" t="s">
         <v>40</v>
@@ -20137,13 +20137,13 @@
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B253">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D253" t="s">
         <v>41</v>
@@ -20161,34 +20161,34 @@
         <v>13</v>
       </c>
       <c r="I253" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J253" t="s">
         <v>28</v>
       </c>
       <c r="K253" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L253">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="M253" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="N253" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O253" t="s">
         <v>31</v>
       </c>
       <c r="P253" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q253" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R253" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="S253" t="s">
         <v>101</v>
@@ -20200,10 +20200,10 @@
         <v>37</v>
       </c>
       <c r="V253" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W253" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="X253" t="s">
         <v>40</v>
@@ -20507,13 +20507,13 @@
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B258">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
         <v>41</v>
@@ -20522,7 +20522,7 @@
         <v>25</v>
       </c>
       <c r="F258" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G258" t="s">
         <v>27</v>
@@ -20531,40 +20531,40 @@
         <v>17</v>
       </c>
       <c r="I258" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="J258" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K258" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L258">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="M258" t="s">
         <v>55</v>
       </c>
       <c r="N258" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O258" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P258" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Q258" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R258" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="S258" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T258" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U258" t="s">
         <v>37</v>
@@ -20573,10 +20573,10 @@
         <v>38</v>
       </c>
       <c r="W258" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="X258" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">

--- a/data/dataset_valores.xlsx
+++ b/data/dataset_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriksandoval/Desktop/ZAGAZ/Estaciones/CH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994AB10A-EFE9-B745-B2EE-49A0BB08C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01F3CC-1A55-554D-8918-F79D0DD6175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{80066C9F-7D8E-B340-8F04-A05F2EBF0A6F}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:X261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J143" sqref="J143"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1999,7 +1999,7 @@
         <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X7" t="s">
         <v>58</v>
@@ -2419,7 +2419,7 @@
         <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
@@ -2739,7 +2739,7 @@
         <v>38</v>
       </c>
       <c r="W17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X17" t="s">
         <v>40</v>
@@ -3331,7 +3331,7 @@
         <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
         <v>58</v>
@@ -3455,7 +3455,7 @@
         <v>36</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P27" t="s">
         <v>46</v>
@@ -5181,7 +5181,7 @@
         <v>38</v>
       </c>
       <c r="W50" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X50" t="s">
         <v>40</v>
@@ -5625,7 +5625,7 @@
         <v>56</v>
       </c>
       <c r="W56" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X56" t="s">
         <v>40</v>
@@ -5897,7 +5897,7 @@
         <v>36</v>
       </c>
       <c r="O60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P60" t="s">
         <v>32</v>
@@ -7451,7 +7451,7 @@
         <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P81" t="s">
         <v>46</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="W99" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X99" t="s">
         <v>40</v>
@@ -8881,7 +8881,7 @@
         <v>38</v>
       </c>
       <c r="W100" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X100" t="s">
         <v>40</v>
@@ -8931,7 +8931,7 @@
         <v>36</v>
       </c>
       <c r="O101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P101" t="s">
         <v>97</v>
@@ -9005,7 +9005,7 @@
         <v>30</v>
       </c>
       <c r="O102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P102" t="s">
         <v>46</v>
@@ -10707,7 +10707,7 @@
         <v>36</v>
       </c>
       <c r="O125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P125" t="s">
         <v>97</v>
@@ -10781,7 +10781,7 @@
         <v>30</v>
       </c>
       <c r="O126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P126" t="s">
         <v>67</v>
@@ -11077,7 +11077,7 @@
         <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P130" t="s">
         <v>32</v>
@@ -11225,7 +11225,7 @@
         <v>36</v>
       </c>
       <c r="O132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P132" t="s">
         <v>32</v>
@@ -11471,7 +11471,7 @@
         <v>56</v>
       </c>
       <c r="W135" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X135" t="s">
         <v>58</v>
@@ -11989,7 +11989,7 @@
         <v>38</v>
       </c>
       <c r="W142" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X142" t="s">
         <v>40</v>
@@ -12039,7 +12039,7 @@
         <v>36</v>
       </c>
       <c r="O143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P143" t="s">
         <v>32</v>
@@ -12285,7 +12285,7 @@
         <v>38</v>
       </c>
       <c r="W146" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X146" t="s">
         <v>40</v>
@@ -13223,7 +13223,7 @@
         <v>36</v>
       </c>
       <c r="O159" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P159" t="s">
         <v>46</v>
@@ -13765,7 +13765,7 @@
         <v>56</v>
       </c>
       <c r="W166" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X166" t="s">
         <v>40</v>
@@ -14037,7 +14037,7 @@
         <v>36</v>
       </c>
       <c r="O170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P170" t="s">
         <v>98</v>
@@ -14407,7 +14407,7 @@
         <v>36</v>
       </c>
       <c r="O175" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P175" t="s">
         <v>46</v>
@@ -14727,7 +14727,7 @@
         <v>38</v>
       </c>
       <c r="W179" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X179" t="s">
         <v>40</v>
@@ -14925,7 +14925,7 @@
         <v>36</v>
       </c>
       <c r="O182" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P182" t="s">
         <v>46</v>
@@ -15221,7 +15221,7 @@
         <v>36</v>
       </c>
       <c r="O186" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P186" t="s">
         <v>87</v>
@@ -15615,7 +15615,7 @@
         <v>38</v>
       </c>
       <c r="W191" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X191" t="s">
         <v>40</v>
@@ -15689,7 +15689,7 @@
         <v>56</v>
       </c>
       <c r="W192" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X192" t="s">
         <v>74</v>
@@ -16479,7 +16479,7 @@
         <v>30</v>
       </c>
       <c r="O203" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P203" t="s">
         <v>98</v>
@@ -16627,7 +16627,7 @@
         <v>30</v>
       </c>
       <c r="O205" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P205" t="s">
         <v>98</v>
@@ -17071,7 +17071,7 @@
         <v>30</v>
       </c>
       <c r="O211" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P211" t="s">
         <v>32</v>
@@ -17589,7 +17589,7 @@
         <v>36</v>
       </c>
       <c r="O218" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P218" t="s">
         <v>32</v>
@@ -18033,7 +18033,7 @@
         <v>36</v>
       </c>
       <c r="O224" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P224" t="s">
         <v>32</v>
@@ -18995,7 +18995,7 @@
         <v>71</v>
       </c>
       <c r="O237" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P237" t="s">
         <v>46</v>
@@ -19365,7 +19365,7 @@
         <v>30</v>
       </c>
       <c r="O242" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P242" t="s">
         <v>97</v>
@@ -19537,7 +19537,7 @@
         <v>56</v>
       </c>
       <c r="W244" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X244" t="s">
         <v>58</v>
@@ -19611,7 +19611,7 @@
         <v>56</v>
       </c>
       <c r="W245" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X245" t="s">
         <v>40</v>
@@ -19661,7 +19661,7 @@
         <v>30</v>
       </c>
       <c r="O246" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="P246" t="s">
         <v>67</v>
@@ -19833,7 +19833,7 @@
         <v>38</v>
       </c>
       <c r="W248" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X248" t="s">
         <v>40</v>
@@ -20129,7 +20129,7 @@
         <v>56</v>
       </c>
       <c r="W252" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X252" t="s">
         <v>40</v>

--- a/data/dataset_valores.xlsx
+++ b/data/dataset_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eriksandoval/Desktop/ZAGAZ/Estaciones/CH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E01F3CC-1A55-554D-8918-F79D0DD6175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2047471-AE45-2442-9634-0136D303D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{80066C9F-7D8E-B340-8F04-A05F2EBF0A6F}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:X261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1975,7 +1975,7 @@
         <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
         <v>32</v>
@@ -2345,7 +2345,7 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
         <v>32</v>
@@ -2567,7 +2567,7 @@
         <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P15" t="s">
         <v>32</v>
@@ -3603,7 +3603,7 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P29" t="s">
         <v>32</v>
@@ -4935,7 +4935,7 @@
         <v>36</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P47" t="s">
         <v>32</v>
@@ -5971,7 +5971,7 @@
         <v>36</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P61" t="s">
         <v>32</v>
@@ -6489,7 +6489,7 @@
         <v>71</v>
       </c>
       <c r="O68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P68" t="s">
         <v>32</v>
@@ -7155,7 +7155,7 @@
         <v>36</v>
       </c>
       <c r="O77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P77" t="s">
         <v>32</v>
@@ -12557,7 +12557,7 @@
         <v>71</v>
       </c>
       <c r="O150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P150" t="s">
         <v>32</v>
@@ -13963,7 +13963,7 @@
         <v>36</v>
       </c>
       <c r="O169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P169" t="s">
         <v>32</v>
@@ -14629,7 +14629,7 @@
         <v>36</v>
       </c>
       <c r="O178" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P178" t="s">
         <v>32</v>
